--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lgi2-Adam22.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lgi2-Adam22.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1188046666666667</v>
+        <v>0.003455333333333333</v>
       </c>
       <c r="H2">
-        <v>0.356414</v>
+        <v>0.010366</v>
       </c>
       <c r="I2">
-        <v>0.00979853232878679</v>
+        <v>0.000270121469710956</v>
       </c>
       <c r="J2">
-        <v>0.009798532328786792</v>
+        <v>0.000270121469710956</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.418229333333334</v>
+        <v>3.618510333333333</v>
       </c>
       <c r="N2">
-        <v>19.254688</v>
+        <v>10.855531</v>
       </c>
       <c r="O2">
-        <v>0.4263166911921744</v>
+        <v>0.1815566256530994</v>
       </c>
       <c r="P2">
-        <v>0.4263166911921744</v>
+        <v>0.1815566256530994</v>
       </c>
       <c r="Q2">
-        <v>0.7625155965368889</v>
+        <v>0.01250315937177778</v>
       </c>
       <c r="R2">
-        <v>6.862640368832</v>
+        <v>0.112528434346</v>
       </c>
       <c r="S2">
-        <v>0.004177277880947935</v>
+        <v>4.904234255717705E-05</v>
       </c>
       <c r="T2">
-        <v>0.004177277880947936</v>
+        <v>4.904234255717707E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1188046666666667</v>
+        <v>0.003455333333333333</v>
       </c>
       <c r="H3">
-        <v>0.356414</v>
+        <v>0.010366</v>
       </c>
       <c r="I3">
-        <v>0.00979853232878679</v>
+        <v>0.000270121469710956</v>
       </c>
       <c r="J3">
-        <v>0.009798532328786792</v>
+        <v>0.000270121469710956</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>11.582076</v>
       </c>
       <c r="O3">
-        <v>0.256437929165941</v>
+        <v>0.1937079481987336</v>
       </c>
       <c r="P3">
-        <v>0.256437929165941</v>
+        <v>0.1937079481987336</v>
       </c>
       <c r="Q3">
-        <v>0.4586682261626667</v>
+        <v>0.01333997775733333</v>
       </c>
       <c r="R3">
-        <v>4.128014035464</v>
+        <v>0.120059799816</v>
       </c>
       <c r="S3">
-        <v>0.00251271533925961</v>
+        <v>5.232467566213565E-05</v>
       </c>
       <c r="T3">
-        <v>0.00251271533925961</v>
+        <v>5.232467566213567E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1188046666666667</v>
+        <v>0.003455333333333333</v>
       </c>
       <c r="H4">
-        <v>0.356414</v>
+        <v>0.010366</v>
       </c>
       <c r="I4">
-        <v>0.00979853232878679</v>
+        <v>0.000270121469710956</v>
       </c>
       <c r="J4">
-        <v>0.009798532328786792</v>
+        <v>0.000270121469710956</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.776152666666666</v>
+        <v>12.45127566666667</v>
       </c>
       <c r="N4">
-        <v>14.328458</v>
+        <v>37.353827</v>
       </c>
       <c r="O4">
-        <v>0.3172453796418847</v>
+        <v>0.6247354261481669</v>
       </c>
       <c r="P4">
-        <v>0.3172453796418846</v>
+        <v>0.6247354261481669</v>
       </c>
       <c r="Q4">
-        <v>0.5674292255124445</v>
+        <v>0.04302330785355555</v>
       </c>
       <c r="R4">
-        <v>5.106863029612</v>
+        <v>0.387209770682</v>
       </c>
       <c r="S4">
-        <v>0.003108539108579245</v>
+        <v>0.0001687544514916432</v>
       </c>
       <c r="T4">
-        <v>0.003108539108579245</v>
+        <v>0.0001687544514916433</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>34.50681299999999</v>
       </c>
       <c r="I5">
-        <v>0.9486611714015168</v>
+        <v>0.8991926531546518</v>
       </c>
       <c r="J5">
-        <v>0.948661171401517</v>
+        <v>0.8991926531546519</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.418229333333334</v>
+        <v>3.618510333333333</v>
       </c>
       <c r="N5">
-        <v>19.254688</v>
+        <v>10.855531</v>
       </c>
       <c r="O5">
-        <v>0.4263166911921744</v>
+        <v>0.1815566256530994</v>
       </c>
       <c r="P5">
-        <v>0.4263166911921744</v>
+        <v>0.1815566256530994</v>
       </c>
       <c r="Q5">
-        <v>73.82421313214932</v>
+        <v>41.62108647030033</v>
       </c>
       <c r="R5">
-        <v>664.4179181893439</v>
+        <v>374.5897782327029</v>
       </c>
       <c r="S5">
-        <v>0.4044300916543869</v>
+        <v>0.1632543839188164</v>
       </c>
       <c r="T5">
-        <v>0.4044300916543869</v>
+        <v>0.1632543839188164</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>34.50681299999999</v>
       </c>
       <c r="I6">
-        <v>0.9486611714015168</v>
+        <v>0.8991926531546518</v>
       </c>
       <c r="J6">
-        <v>0.948661171401517</v>
+        <v>0.8991926531546519</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>11.582076</v>
       </c>
       <c r="O6">
-        <v>0.256437929165941</v>
+        <v>0.1937079481987336</v>
       </c>
       <c r="P6">
-        <v>0.256437929165941</v>
+        <v>0.1937079481987336</v>
       </c>
       <c r="Q6">
         <v>44.406725631532</v>
@@ -818,10 +818,10 @@
         <v>399.660530683788</v>
       </c>
       <c r="S6">
-        <v>0.2432727062743408</v>
+        <v>0.1741807638779631</v>
       </c>
       <c r="T6">
-        <v>0.2432727062743408</v>
+        <v>0.1741807638779632</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>34.50681299999999</v>
       </c>
       <c r="I7">
-        <v>0.9486611714015168</v>
+        <v>0.8991926531546518</v>
       </c>
       <c r="J7">
-        <v>0.948661171401517</v>
+        <v>0.8991926531546519</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.776152666666666</v>
+        <v>12.45127566666667</v>
       </c>
       <c r="N7">
-        <v>14.328458</v>
+        <v>37.353827</v>
       </c>
       <c r="O7">
-        <v>0.3172453796418847</v>
+        <v>0.6247354261481669</v>
       </c>
       <c r="P7">
-        <v>0.3172453796418846</v>
+        <v>0.6247354261481669</v>
       </c>
       <c r="Q7">
-        <v>54.93660230937266</v>
+        <v>143.2179470137056</v>
       </c>
       <c r="R7">
-        <v>494.4294207843539</v>
+        <v>1288.961523123351</v>
       </c>
       <c r="S7">
-        <v>0.3009583734727892</v>
+        <v>0.5617575053578723</v>
       </c>
       <c r="T7">
-        <v>0.3009583734727892</v>
+        <v>0.5617575053578723</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5036653333333333</v>
+        <v>1.286049666666667</v>
       </c>
       <c r="H8">
-        <v>1.510996</v>
+        <v>3.858149</v>
       </c>
       <c r="I8">
-        <v>0.04154029626969626</v>
+        <v>0.1005372253756372</v>
       </c>
       <c r="J8">
-        <v>0.04154029626969627</v>
+        <v>0.1005372253756372</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.418229333333334</v>
+        <v>3.618510333333333</v>
       </c>
       <c r="N8">
-        <v>19.254688</v>
+        <v>10.855531</v>
       </c>
       <c r="O8">
-        <v>0.4263166911921744</v>
+        <v>0.1815566256530994</v>
       </c>
       <c r="P8">
-        <v>0.4263166911921744</v>
+        <v>0.1815566256530994</v>
       </c>
       <c r="Q8">
-        <v>3.232639616583111</v>
+        <v>4.653584008013222</v>
       </c>
       <c r="R8">
-        <v>29.093756549248</v>
+        <v>41.882256072119</v>
       </c>
       <c r="S8">
-        <v>0.01770932165683953</v>
+        <v>0.01825319939172585</v>
       </c>
       <c r="T8">
-        <v>0.01770932165683954</v>
+        <v>0.01825319939172585</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5036653333333333</v>
+        <v>1.286049666666667</v>
       </c>
       <c r="H9">
-        <v>1.510996</v>
+        <v>3.858149</v>
       </c>
       <c r="I9">
-        <v>0.04154029626969626</v>
+        <v>0.1005372253756372</v>
       </c>
       <c r="J9">
-        <v>0.04154029626969627</v>
+        <v>0.1005372253756372</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>11.582076</v>
       </c>
       <c r="O9">
-        <v>0.256437929165941</v>
+        <v>0.1937079481987336</v>
       </c>
       <c r="P9">
-        <v>0.256437929165941</v>
+        <v>0.1937079481987336</v>
       </c>
       <c r="Q9">
-        <v>1.944496723077333</v>
+        <v>4.965041659702667</v>
       </c>
       <c r="R9">
-        <v>17.500470507696</v>
+        <v>44.68537493732401</v>
       </c>
       <c r="S9">
-        <v>0.01065250755234057</v>
+        <v>0.01947485964510834</v>
       </c>
       <c r="T9">
-        <v>0.01065250755234057</v>
+        <v>0.01947485964510834</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5036653333333333</v>
+        <v>1.286049666666667</v>
       </c>
       <c r="H10">
-        <v>1.510996</v>
+        <v>3.858149</v>
       </c>
       <c r="I10">
-        <v>0.04154029626969626</v>
+        <v>0.1005372253756372</v>
       </c>
       <c r="J10">
-        <v>0.04154029626969627</v>
+        <v>0.1005372253756372</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.776152666666666</v>
+        <v>12.45127566666667</v>
       </c>
       <c r="N10">
-        <v>14.328458</v>
+        <v>37.353827</v>
       </c>
       <c r="O10">
-        <v>0.3172453796418847</v>
+        <v>0.6247354261481669</v>
       </c>
       <c r="P10">
-        <v>0.3172453796418846</v>
+        <v>0.6247354261481669</v>
       </c>
       <c r="Q10">
-        <v>2.405582524907555</v>
+        <v>16.01295892069145</v>
       </c>
       <c r="R10">
-        <v>21.650242724168</v>
+        <v>144.116630286223</v>
       </c>
       <c r="S10">
-        <v>0.01317846706051615</v>
+        <v>0.062809166338803</v>
       </c>
       <c r="T10">
-        <v>0.01317846706051616</v>
+        <v>0.06280916633880301</v>
       </c>
     </row>
   </sheetData>
